--- a/Excel文件/能力大类型权重表.xlsx
+++ b/Excel文件/能力大类型权重表.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596CA67-8633-4EEE-A1BB-136FEAE26EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TypeWeightData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -132,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,13 +212,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +264,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -289,6 +298,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -323,9 +333,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,16 +509,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,7 +534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -531,7 +542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -539,7 +550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>8</v>
       </c>
@@ -547,7 +558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>9</v>
       </c>
@@ -555,7 +566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H10">
         <v>0</v>
       </c>
@@ -563,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H11">
         <v>1</v>
       </c>
@@ -574,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H12">
         <v>2</v>
       </c>
@@ -585,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H13" s="1">
         <v>3</v>
       </c>
@@ -593,7 +604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H14">
         <v>4</v>
       </c>
@@ -601,7 +612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H15">
         <v>5</v>
       </c>
@@ -612,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H16" s="1">
         <v>6</v>
       </c>
@@ -620,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="8:10">
+    <row r="17" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H17" s="1">
         <v>7</v>
       </c>
@@ -628,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="8:10">
+    <row r="18" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H18">
         <v>8</v>
       </c>
@@ -636,7 +647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="8:10">
+    <row r="19" spans="8:10" x14ac:dyDescent="0.15">
       <c r="H19">
         <v>9</v>
       </c>
@@ -653,12 +664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -666,12 +677,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel文件/能力大类型权重表.xlsx
+++ b/Excel文件/能力大类型权重表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29005"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7596CA67-8633-4EEE-A1BB-136FEAE26EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F14B7-219B-405E-8E60-7D7F8D97517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,11 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +123,14 @@
   </si>
   <si>
     <t>英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,17 +517,20 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -533,6 +540,9 @@
       <c r="B2">
         <v>100</v>
       </c>
+      <c r="C2">
+        <v>9999</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -541,6 +551,9 @@
       <c r="B3">
         <v>100</v>
       </c>
+      <c r="C3">
+        <v>9999</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -549,6 +562,9 @@
       <c r="B4">
         <v>100</v>
       </c>
+      <c r="C4">
+        <v>9999</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -557,6 +573,9 @@
       <c r="B5">
         <v>100</v>
       </c>
+      <c r="C5">
+        <v>9999</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -565,13 +584,16 @@
       <c r="B6">
         <v>100</v>
       </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -579,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -590,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -601,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -609,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -617,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -628,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="8:10" x14ac:dyDescent="0.15">
@@ -636,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.15">
@@ -644,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="8:10" x14ac:dyDescent="0.15">
@@ -652,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel文件/能力大类型权重表.xlsx
+++ b/Excel文件/能力大类型权重表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892F14B7-219B-405E-8E60-7D7F8D97517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBC1543-5871-49A7-942E-CA1138DCBD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,7 +585,7 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">

--- a/Excel文件/能力大类型权重表.xlsx
+++ b/Excel文件/能力大类型权重表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBC1543-5871-49A7-942E-CA1138DCBD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7697026-00B5-4361-A28A-6CA6F3FCFE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
